--- a/results/02-2024/comparison-deflators-02-2024.xlsx
+++ b/results/02-2024/comparison-deflators-02-2024.xlsx
@@ -880,34 +880,34 @@
         <v>0.3088</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2691</v>
+        <v>0.2804</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1405</v>
+        <v>0.1638</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1545</v>
+        <v>-0.1183</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2881</v>
+        <v>-0.2381</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.2601</v>
+        <v>-0.2242</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.307</v>
+        <v>-0.2846</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.2298</v>
+        <v>-0.2202</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.1687</v>
+        <v>-0.1713</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.0218</v>
+        <v>-0.0359</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.7173</v>
+        <v>-0.7425</v>
       </c>
     </row>
     <row r="7">
@@ -1560,34 +1560,34 @@
         <v>0.5287</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1756</v>
+        <v>0.1869</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.5553</v>
+        <v>-0.4043</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.8884</v>
+        <v>-0.7993</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.6894</v>
+        <v>-0.6397</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.4098</v>
+        <v>-0.3742</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.8421</v>
+        <v>-0.82</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.8456</v>
+        <v>-0.8363</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.5293</v>
+        <v>-0.5322</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.354</v>
+        <v>-0.3685</v>
       </c>
       <c r="V16" t="n">
-        <v>-50.4098</v>
+        <v>-50.6121</v>
       </c>
     </row>
     <row r="17">
@@ -1971,31 +1971,31 @@
         <v>0.6308</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0815</v>
+        <v>0.0461</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3086</v>
+        <v>0.3614</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.0647</v>
+        <v>-0.065</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.094</v>
+        <v>-0.0943</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2329</v>
+        <v>0.2326</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1213</v>
+        <v>0.121</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.0292</v>
+        <v>-0.0294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0162</v>
+        <v>0.0159</v>
       </c>
       <c r="V22" t="n">
-        <v>-41.357</v>
+        <v>-41.5341</v>
       </c>
     </row>
     <row r="23">
@@ -2784,34 +2784,34 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0164</v>
+        <v>-0.0051</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.0277</v>
+        <v>-0.0044</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.0471</v>
+        <v>-0.0108</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.0654</v>
+        <v>-0.0154</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.0544</v>
+        <v>-0.0186</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.0442</v>
+        <v>-0.0218</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.0342</v>
+        <v>-0.0246</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.0248</v>
+        <v>-0.0274</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.0159</v>
+        <v>-0.0301</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.0076</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="35">
@@ -3464,34 +3464,34 @@
         <v>-0.1105</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0081</v>
+        <v>0.0194</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.4478</v>
+        <v>-0.2968</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.2617</v>
+        <v>-0.1727</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0411</v>
+        <v>0.0908</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.0244</v>
+        <v>0.06</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.1441</v>
+        <v>-0.122</v>
       </c>
       <c r="S44" t="n">
-        <v>-0.2412</v>
+        <v>-0.2318</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.2881</v>
+        <v>-0.2909</v>
       </c>
       <c r="U44" t="n">
-        <v>-0.3094</v>
+        <v>-0.3238</v>
       </c>
       <c r="V44" t="n">
-        <v>-0.2603</v>
+        <v>-0.4626</v>
       </c>
     </row>
     <row r="45">
@@ -3875,31 +3875,31 @@
         <v>0.1279</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.1962</v>
+        <v>-0.0686</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0032</v>
+        <v>0.056</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.0017</v>
+        <v>-0.0021</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0149</v>
+        <v>0.0146</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0251</v>
+        <v>0.0248</v>
       </c>
       <c r="S50" t="n">
-        <v>0.0331</v>
+        <v>0.0328</v>
       </c>
       <c r="T50" t="n">
-        <v>0.0491</v>
+        <v>0.0488</v>
       </c>
       <c r="U50" t="n">
-        <v>0.0375</v>
+        <v>0.0372</v>
       </c>
       <c r="V50" t="n">
-        <v>0.1209</v>
+        <v>-0.0563</v>
       </c>
     </row>
     <row r="51">
